--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1418.99838</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4098.62633</v>
-      </c>
-      <c r="D2" t="n">
-        <v>346.17394</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1642</v>
-      </c>
-      <c r="F2" t="n">
-        <v>110.80244</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3912.28261</v>
-      </c>
-      <c r="H2" t="n">
-        <v>832.68112</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1056.49658</v>
-      </c>
-      <c r="J2" t="n">
-        <v>234.14972</v>
-      </c>
-      <c r="K2" t="n">
-        <v>502.18749</v>
-      </c>
-      <c r="L2" t="n">
-        <v>52083.87</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53.31064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>87.00609</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2081.39182</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1402.81401</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>195.97803</v>
-      </c>
-      <c r="R2" t="n">
-        <v>327.46552</v>
-      </c>
-      <c r="S2" t="n">
-        <v>193.81889</v>
-      </c>
-      <c r="T2" t="n">
-        <v>226.44533</v>
-      </c>
-      <c r="U2" t="n">
-        <v>493.65343</v>
-      </c>
-      <c r="V2" t="n">
-        <v>741.04517</v>
-      </c>
-      <c r="W2" t="n">
-        <v>200.13021</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2099.61532</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8717.98638</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3000.19226</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1979.12988</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>217.23368</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1858.81858</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1607.63795</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2374.30768</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>343.94171</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>895.3366</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>595.97839</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1991.20861</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>276.93352</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>512.54594</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1040.76908</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1119.15255</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4338.75905</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>84.56474</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1380.54454</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4505.13499</v>
-      </c>
-      <c r="D3" t="n">
-        <v>403.74218</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.16078</v>
-      </c>
-      <c r="F3" t="n">
-        <v>130.36309</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4005.64075</v>
-      </c>
-      <c r="H3" t="n">
-        <v>766.31879</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1250.07545</v>
-      </c>
-      <c r="J3" t="n">
-        <v>275.2842</v>
-      </c>
-      <c r="K3" t="n">
-        <v>566.54093</v>
-      </c>
-      <c r="L3" t="n">
-        <v>56338.65</v>
-      </c>
-      <c r="M3" t="n">
-        <v>63.71723</v>
-      </c>
-      <c r="N3" t="n">
-        <v>82.59242999999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2132.47703</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1539.15748</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>205.99376</v>
-      </c>
-      <c r="R3" t="n">
-        <v>380.51115</v>
-      </c>
-      <c r="S3" t="n">
-        <v>210.51578</v>
-      </c>
-      <c r="T3" t="n">
-        <v>222.12464</v>
-      </c>
-      <c r="U3" t="n">
-        <v>524.86873</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1092.94122</v>
-      </c>
-      <c r="W3" t="n">
-        <v>192.93469</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2232.07561</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9898.37667</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3762.35571</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2203.9531</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>235.148</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1897.66214</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1488.61445</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2347.15837</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>395.8903</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1218.65253</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>680.3328299999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>2144.44272</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>244.22552</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>577.32883</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1063.00635</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1130.17296</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4317.87014</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>81.84305999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1464.732</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4997.23657</v>
-      </c>
-      <c r="D4" t="n">
-        <v>412.02027</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.15803</v>
-      </c>
-      <c r="F4" t="n">
-        <v>138.36312</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4094.67523</v>
-      </c>
-      <c r="H4" t="n">
-        <v>734.47689</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1358.34646</v>
-      </c>
-      <c r="J4" t="n">
-        <v>273.09011</v>
-      </c>
-      <c r="K4" t="n">
-        <v>623.11091</v>
-      </c>
-      <c r="L4" t="n">
-        <v>59873.02</v>
-      </c>
-      <c r="M4" t="n">
-        <v>60.86324</v>
-      </c>
-      <c r="N4" t="n">
-        <v>96.9507</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2260.08108</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1623.92569</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>210.72473</v>
-      </c>
-      <c r="R4" t="n">
-        <v>394.04457</v>
-      </c>
-      <c r="S4" t="n">
-        <v>222.43054</v>
-      </c>
-      <c r="T4" t="n">
-        <v>226.4281</v>
-      </c>
-      <c r="U4" t="n">
-        <v>517.06592</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1078.68733</v>
-      </c>
-      <c r="W4" t="n">
-        <v>236.33731</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2311.26166</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10922.32912</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4278.54761</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2288.41142</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>248.83963</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1806.66743</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1533.70229</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2406.32729</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>462.44741</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1264.46696</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>701.75579</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2194.37483</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>293.9252</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>668.45672</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1135.16073</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1160.64646</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4580.30847</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>99.03802</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
